--- a/src/test/cms_test_data_setup.xlsx
+++ b/src/test/cms_test_data_setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15150" windowHeight="3405"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15150" windowHeight="3405" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="cmstestdata" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="city" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -3402,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11:P13"/>
     </sheetView>
   </sheetViews>
@@ -13763,7 +13764,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/src/test/cms_test_data_setup.xlsx
+++ b/src/test/cms_test_data_setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cms_Backend\cms-backend\src\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cms\cms-backend\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0564C8-B303-49F6-BC67-A99EFA4A986A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807EF187-5C8E-4FEC-8308-B38A93AF5534}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmstestdata" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1025">
   <si>
     <t>college</t>
   </si>
@@ -3082,6 +3082,21 @@
   </si>
   <si>
     <t>Kate</t>
+  </si>
+  <si>
+    <t>fee_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common </t>
+  </si>
+  <si>
+    <t>Opptional</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
   </si>
 </sst>
 </file>
@@ -3466,29 +3481,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="A1:XFD1048576"/>
+      <selection activeCell="S2" sqref="A1:S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3556,14 @@
       <c r="Q1" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -3593,8 +3615,14 @@
       <c r="Q2" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -3646,8 +3674,14 @@
       <c r="Q3" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -3699,8 +3733,14 @@
       <c r="Q4" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -3752,8 +3792,14 @@
       <c r="Q5" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3805,8 +3851,14 @@
       <c r="Q6" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -3858,8 +3910,14 @@
       <c r="Q7" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -3911,8 +3969,14 @@
       <c r="Q8" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -3964,8 +4028,14 @@
       <c r="Q9" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -4017,8 +4087,14 @@
       <c r="Q10" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -4070,8 +4146,14 @@
       <c r="Q11" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -4123,8 +4205,14 @@
       <c r="Q12" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -4176,8 +4264,14 @@
       <c r="Q13" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -4229,8 +4323,14 @@
       <c r="Q14" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -4282,8 +4382,14 @@
       <c r="Q15" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -4335,8 +4441,14 @@
       <c r="Q16" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -4387,6 +4499,12 @@
       </c>
       <c r="Q17" t="s">
         <v>987</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -4403,14 +4521,14 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4421,7 +4539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -4432,7 +4550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4443,7 +4561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4454,7 +4572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4465,7 +4583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4476,7 +4594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -4487,7 +4605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4498,7 +4616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -4509,7 +4627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4520,7 +4638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -4531,7 +4649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -4542,7 +4660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4553,7 +4671,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -4564,7 +4682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -4575,7 +4693,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -4586,7 +4704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -4597,7 +4715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -4608,7 +4726,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -4619,7 +4737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -4630,7 +4748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -4641,7 +4759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -4652,7 +4770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -4663,7 +4781,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -4674,7 +4792,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -4685,7 +4803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -4696,7 +4814,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -4707,7 +4825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -4718,7 +4836,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -4729,7 +4847,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -4740,7 +4858,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -4751,7 +4869,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -4762,7 +4880,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -4773,7 +4891,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -4784,7 +4902,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -4795,7 +4913,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -4806,7 +4924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -4828,15 +4946,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>992</v>
       </c>
@@ -4850,7 +4968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -4864,7 +4982,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -4878,7 +4996,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -4892,7 +5010,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -4906,7 +5024,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -4920,7 +5038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -4934,7 +5052,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -4948,7 +5066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -4962,7 +5080,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4976,7 +5094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -4990,7 +5108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -5004,7 +5122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -5018,7 +5136,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -5032,7 +5150,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -5046,7 +5164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -5060,7 +5178,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -5074,7 +5192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -5088,7 +5206,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -5102,7 +5220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -5116,7 +5234,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -5130,7 +5248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -5144,7 +5262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -5158,7 +5276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -5172,7 +5290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -5186,7 +5304,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -5200,7 +5318,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -5214,7 +5332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -5228,7 +5346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -5242,7 +5360,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -5256,7 +5374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -5270,7 +5388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -5284,7 +5402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -5298,7 +5416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -5312,7 +5430,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -5326,7 +5444,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -5340,7 +5458,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -5354,7 +5472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -5368,7 +5486,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -5382,7 +5500,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -5396,7 +5514,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -5410,7 +5528,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -5424,7 +5542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -5438,7 +5556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -5452,7 +5570,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>165</v>
       </c>
@@ -5466,7 +5584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>166</v>
       </c>
@@ -5480,7 +5598,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -5494,7 +5612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>169</v>
       </c>
@@ -5508,7 +5626,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -5522,7 +5640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -5536,7 +5654,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -5550,7 +5668,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -5564,7 +5682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -5578,7 +5696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -5592,7 +5710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -5606,7 +5724,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -5620,7 +5738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>182</v>
       </c>
@@ -5634,7 +5752,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>183</v>
       </c>
@@ -5648,7 +5766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>184</v>
       </c>
@@ -5662,7 +5780,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>185</v>
       </c>
@@ -5676,7 +5794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -5690,7 +5808,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -5704,7 +5822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -5718,7 +5836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -5732,7 +5850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -5746,7 +5864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -5760,7 +5878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -5774,7 +5892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -5788,7 +5906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>197</v>
       </c>
@@ -5802,7 +5920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -5816,7 +5934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>199</v>
       </c>
@@ -5830,7 +5948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -5844,7 +5962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>201</v>
       </c>
@@ -5858,7 +5976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -5872,7 +5990,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -5886,7 +6004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>204</v>
       </c>
@@ -5900,7 +6018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -5914,7 +6032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -5928,7 +6046,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>208</v>
       </c>
@@ -5942,7 +6060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>209</v>
       </c>
@@ -5956,7 +6074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -5970,7 +6088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>212</v>
       </c>
@@ -5984,7 +6102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -5998,7 +6116,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>215</v>
       </c>
@@ -6012,7 +6130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>216</v>
       </c>
@@ -6026,7 +6144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>216</v>
       </c>
@@ -6040,7 +6158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>217</v>
       </c>
@@ -6054,7 +6172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>218</v>
       </c>
@@ -6068,7 +6186,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>219</v>
       </c>
@@ -6082,7 +6200,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>219</v>
       </c>
@@ -6096,7 +6214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>220</v>
       </c>
@@ -6110,7 +6228,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -6124,7 +6242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>222</v>
       </c>
@@ -6138,7 +6256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -6152,7 +6270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -6166,7 +6284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -6180,7 +6298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -6194,7 +6312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -6208,7 +6326,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -6222,7 +6340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -6236,7 +6354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -6250,7 +6368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -6264,7 +6382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -6278,7 +6396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -6292,7 +6410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>237</v>
       </c>
@@ -6306,7 +6424,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>239</v>
       </c>
@@ -6320,7 +6438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>241</v>
       </c>
@@ -6334,7 +6452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>242</v>
       </c>
@@ -6348,7 +6466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>244</v>
       </c>
@@ -6362,7 +6480,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>246</v>
       </c>
@@ -6376,7 +6494,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -6390,7 +6508,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>247</v>
       </c>
@@ -6404,7 +6522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>248</v>
       </c>
@@ -6418,7 +6536,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>249</v>
       </c>
@@ -6432,7 +6550,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>250</v>
       </c>
@@ -6446,7 +6564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>251</v>
       </c>
@@ -6460,7 +6578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -6474,7 +6592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>254</v>
       </c>
@@ -6488,7 +6606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>256</v>
       </c>
@@ -6502,7 +6620,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>258</v>
       </c>
@@ -6516,7 +6634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>259</v>
       </c>
@@ -6530,7 +6648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -6544,7 +6662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>261</v>
       </c>
@@ -6558,7 +6676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>262</v>
       </c>
@@ -6572,7 +6690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>263</v>
       </c>
@@ -6586,7 +6704,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>265</v>
       </c>
@@ -6600,7 +6718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>267</v>
       </c>
@@ -6614,7 +6732,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>269</v>
       </c>
@@ -6628,7 +6746,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>271</v>
       </c>
@@ -6642,7 +6760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>272</v>
       </c>
@@ -6656,7 +6774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>46</v>
       </c>
@@ -6670,7 +6788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>273</v>
       </c>
@@ -6684,7 +6802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>275</v>
       </c>
@@ -6698,7 +6816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>277</v>
       </c>
@@ -6712,7 +6830,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -6726,7 +6844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -6740,7 +6858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -6754,7 +6872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>283</v>
       </c>
@@ -6768,7 +6886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>284</v>
       </c>
@@ -6782,7 +6900,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>285</v>
       </c>
@@ -6796,7 +6914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>287</v>
       </c>
@@ -6810,7 +6928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>289</v>
       </c>
@@ -6824,7 +6942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>290</v>
       </c>
@@ -6838,7 +6956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>291</v>
       </c>
@@ -6852,7 +6970,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>292</v>
       </c>
@@ -6866,7 +6984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>294</v>
       </c>
@@ -6880,7 +6998,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>295</v>
       </c>
@@ -6894,7 +7012,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>296</v>
       </c>
@@ -6908,7 +7026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -6922,7 +7040,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -6936,7 +7054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -6950,7 +7068,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>301</v>
       </c>
@@ -6964,7 +7082,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -6978,7 +7096,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>303</v>
       </c>
@@ -6992,7 +7110,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>304</v>
       </c>
@@ -7006,7 +7124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>305</v>
       </c>
@@ -7020,7 +7138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>306</v>
       </c>
@@ -7034,7 +7152,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>307</v>
       </c>
@@ -7048,7 +7166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>309</v>
       </c>
@@ -7062,7 +7180,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>310</v>
       </c>
@@ -7076,7 +7194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>312</v>
       </c>
@@ -7090,7 +7208,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>313</v>
       </c>
@@ -7104,7 +7222,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>314</v>
       </c>
@@ -7118,7 +7236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>315</v>
       </c>
@@ -7132,7 +7250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>316</v>
       </c>
@@ -7146,7 +7264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>317</v>
       </c>
@@ -7160,7 +7278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>318</v>
       </c>
@@ -7174,7 +7292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>320</v>
       </c>
@@ -7188,7 +7306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>321</v>
       </c>
@@ -7202,7 +7320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>323</v>
       </c>
@@ -7216,7 +7334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>325</v>
       </c>
@@ -7230,7 +7348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>326</v>
       </c>
@@ -7244,7 +7362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>328</v>
       </c>
@@ -7258,7 +7376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>330</v>
       </c>
@@ -7272,7 +7390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>331</v>
       </c>
@@ -7286,7 +7404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>333</v>
       </c>
@@ -7300,7 +7418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>335</v>
       </c>
@@ -7314,7 +7432,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>336</v>
       </c>
@@ -7328,7 +7446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>338</v>
       </c>
@@ -7342,7 +7460,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>340</v>
       </c>
@@ -7356,7 +7474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>342</v>
       </c>
@@ -7370,7 +7488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>344</v>
       </c>
@@ -7384,7 +7502,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>346</v>
       </c>
@@ -7398,7 +7516,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>348</v>
       </c>
@@ -7412,7 +7530,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>350</v>
       </c>
@@ -7426,7 +7544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>351</v>
       </c>
@@ -7440,7 +7558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>353</v>
       </c>
@@ -7454,7 +7572,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>354</v>
       </c>
@@ -7468,7 +7586,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>355</v>
       </c>
@@ -7482,7 +7600,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>357</v>
       </c>
@@ -7496,7 +7614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>358</v>
       </c>
@@ -7510,7 +7628,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>359</v>
       </c>
@@ -7524,7 +7642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>360</v>
       </c>
@@ -7538,7 +7656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>362</v>
       </c>
@@ -7552,7 +7670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>363</v>
       </c>
@@ -7566,7 +7684,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>364</v>
       </c>
@@ -7580,7 +7698,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>365</v>
       </c>
@@ -7594,7 +7712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>367</v>
       </c>
@@ -7608,7 +7726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>368</v>
       </c>
@@ -7622,7 +7740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>370</v>
       </c>
@@ -7636,7 +7754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>371</v>
       </c>
@@ -7650,7 +7768,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>373</v>
       </c>
@@ -7664,7 +7782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>374</v>
       </c>
@@ -7678,7 +7796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>376</v>
       </c>
@@ -7692,7 +7810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>377</v>
       </c>
@@ -7706,7 +7824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>379</v>
       </c>
@@ -7720,7 +7838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>381</v>
       </c>
@@ -7734,7 +7852,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>382</v>
       </c>
@@ -7748,7 +7866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>383</v>
       </c>
@@ -7762,7 +7880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>384</v>
       </c>
@@ -7776,7 +7894,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>386</v>
       </c>
@@ -7790,7 +7908,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>387</v>
       </c>
@@ -7804,7 +7922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>389</v>
       </c>
@@ -7818,7 +7936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>390</v>
       </c>
@@ -7832,7 +7950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>392</v>
       </c>
@@ -7846,7 +7964,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>393</v>
       </c>
@@ -7860,7 +7978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>394</v>
       </c>
@@ -7874,7 +7992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>396</v>
       </c>
@@ -7888,7 +8006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>398</v>
       </c>
@@ -7902,7 +8020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>398</v>
       </c>
@@ -7916,7 +8034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>400</v>
       </c>
@@ -7930,7 +8048,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>401</v>
       </c>
@@ -7944,7 +8062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>402</v>
       </c>
@@ -7958,7 +8076,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>403</v>
       </c>
@@ -7972,7 +8090,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>404</v>
       </c>
@@ -7986,7 +8104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>406</v>
       </c>
@@ -8000,7 +8118,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -8014,7 +8132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -8028,7 +8146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -8042,7 +8160,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -8056,7 +8174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>415</v>
       </c>
@@ -8070,7 +8188,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>417</v>
       </c>
@@ -8084,7 +8202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>419</v>
       </c>
@@ -8098,7 +8216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>420</v>
       </c>
@@ -8112,7 +8230,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>421</v>
       </c>
@@ -8126,7 +8244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>423</v>
       </c>
@@ -8140,7 +8258,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>425</v>
       </c>
@@ -8154,7 +8272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>427</v>
       </c>
@@ -8168,7 +8286,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>429</v>
       </c>
@@ -8182,7 +8300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>431</v>
       </c>
@@ -8196,7 +8314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>432</v>
       </c>
@@ -8210,7 +8328,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>434</v>
       </c>
@@ -8224,7 +8342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>435</v>
       </c>
@@ -8238,7 +8356,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>436</v>
       </c>
@@ -8252,7 +8370,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>437</v>
       </c>
@@ -8266,7 +8384,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>439</v>
       </c>
@@ -8280,7 +8398,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>441</v>
       </c>
@@ -8294,7 +8412,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>443</v>
       </c>
@@ -8308,7 +8426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>444</v>
       </c>
@@ -8322,7 +8440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>445</v>
       </c>
@@ -8336,7 +8454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>447</v>
       </c>
@@ -8350,7 +8468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>448</v>
       </c>
@@ -8364,7 +8482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>449</v>
       </c>
@@ -8378,7 +8496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>450</v>
       </c>
@@ -8392,7 +8510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>452</v>
       </c>
@@ -8406,7 +8524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>453</v>
       </c>
@@ -8420,7 +8538,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>455</v>
       </c>
@@ -8434,7 +8552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>456</v>
       </c>
@@ -8448,7 +8566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>458</v>
       </c>
@@ -8462,7 +8580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>459</v>
       </c>
@@ -8476,7 +8594,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>461</v>
       </c>
@@ -8490,7 +8608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>462</v>
       </c>
@@ -8504,7 +8622,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>463</v>
       </c>
@@ -8518,7 +8636,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>465</v>
       </c>
@@ -8532,7 +8650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>467</v>
       </c>
@@ -8546,7 +8664,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>469</v>
       </c>
@@ -8560,7 +8678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>470</v>
       </c>
@@ -8574,7 +8692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>471</v>
       </c>
@@ -8588,7 +8706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>472</v>
       </c>
@@ -8602,7 +8720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>473</v>
       </c>
@@ -8616,7 +8734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>475</v>
       </c>
@@ -8630,7 +8748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>477</v>
       </c>
@@ -8644,7 +8762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>478</v>
       </c>
@@ -8658,7 +8776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>480</v>
       </c>
@@ -8672,7 +8790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>481</v>
       </c>
@@ -8686,7 +8804,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>483</v>
       </c>
@@ -8700,7 +8818,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>485</v>
       </c>
@@ -8714,7 +8832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>486</v>
       </c>
@@ -8728,7 +8846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>488</v>
       </c>
@@ -8742,7 +8860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>490</v>
       </c>
@@ -8756,7 +8874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>491</v>
       </c>
@@ -8770,7 +8888,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>492</v>
       </c>
@@ -8784,7 +8902,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>494</v>
       </c>
@@ -8798,7 +8916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>496</v>
       </c>
@@ -8812,7 +8930,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>497</v>
       </c>
@@ -8826,7 +8944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>498</v>
       </c>
@@ -8840,7 +8958,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>499</v>
       </c>
@@ -8854,7 +8972,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>500</v>
       </c>
@@ -8868,7 +8986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>501</v>
       </c>
@@ -8882,7 +9000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>502</v>
       </c>
@@ -8896,7 +9014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>503</v>
       </c>
@@ -8910,7 +9028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>504</v>
       </c>
@@ -8924,7 +9042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>505</v>
       </c>
@@ -8938,7 +9056,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>506</v>
       </c>
@@ -8952,7 +9070,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>508</v>
       </c>
@@ -8966,7 +9084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>509</v>
       </c>
@@ -8980,7 +9098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>510</v>
       </c>
@@ -8994,7 +9112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>511</v>
       </c>
@@ -9008,7 +9126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>512</v>
       </c>
@@ -9022,7 +9140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>513</v>
       </c>
@@ -9036,7 +9154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>515</v>
       </c>
@@ -9050,7 +9168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>516</v>
       </c>
@@ -9064,7 +9182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>518</v>
       </c>
@@ -9078,7 +9196,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>519</v>
       </c>
@@ -9092,7 +9210,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>520</v>
       </c>
@@ -9106,7 +9224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>521</v>
       </c>
@@ -9120,7 +9238,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>522</v>
       </c>
@@ -9134,7 +9252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>524</v>
       </c>
@@ -9148,7 +9266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>525</v>
       </c>
@@ -9162,7 +9280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>526</v>
       </c>
@@ -9176,7 +9294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>527</v>
       </c>
@@ -9190,7 +9308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>529</v>
       </c>
@@ -9204,7 +9322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>530</v>
       </c>
@@ -9218,7 +9336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>532</v>
       </c>
@@ -9232,7 +9350,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>533</v>
       </c>
@@ -9246,7 +9364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>534</v>
       </c>
@@ -9260,7 +9378,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>535</v>
       </c>
@@ -9274,7 +9392,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>536</v>
       </c>
@@ -9288,7 +9406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>537</v>
       </c>
@@ -9302,7 +9420,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>538</v>
       </c>
@@ -9316,7 +9434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>539</v>
       </c>
@@ -9330,7 +9448,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>540</v>
       </c>
@@ -9344,7 +9462,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>541</v>
       </c>
@@ -9358,7 +9476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>542</v>
       </c>
@@ -9372,7 +9490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>543</v>
       </c>
@@ -9386,7 +9504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>544</v>
       </c>
@@ -9400,7 +9518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>545</v>
       </c>
@@ -9414,7 +9532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>547</v>
       </c>
@@ -9428,7 +9546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>548</v>
       </c>
@@ -9442,7 +9560,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>550</v>
       </c>
@@ -9456,7 +9574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>551</v>
       </c>
@@ -9470,7 +9588,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>552</v>
       </c>
@@ -9484,7 +9602,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>553</v>
       </c>
@@ -9498,7 +9616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>554</v>
       </c>
@@ -9512,7 +9630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>555</v>
       </c>
@@ -9526,7 +9644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>556</v>
       </c>
@@ -9540,7 +9658,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>557</v>
       </c>
@@ -9554,7 +9672,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>559</v>
       </c>
@@ -9568,7 +9686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>561</v>
       </c>
@@ -9582,7 +9700,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>563</v>
       </c>
@@ -9596,7 +9714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>64</v>
       </c>
@@ -9610,7 +9728,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>564</v>
       </c>
@@ -9624,7 +9742,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>565</v>
       </c>
@@ -9638,7 +9756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>566</v>
       </c>
@@ -9652,7 +9770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>567</v>
       </c>
@@ -9666,7 +9784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>568</v>
       </c>
@@ -9680,7 +9798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>570</v>
       </c>
@@ -9694,7 +9812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>572</v>
       </c>
@@ -9708,7 +9826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>574</v>
       </c>
@@ -9722,7 +9840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>575</v>
       </c>
@@ -9736,7 +9854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>576</v>
       </c>
@@ -9750,7 +9868,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>578</v>
       </c>
@@ -9764,7 +9882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>579</v>
       </c>
@@ -9778,7 +9896,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>580</v>
       </c>
@@ -9792,7 +9910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>581</v>
       </c>
@@ -9806,7 +9924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>583</v>
       </c>
@@ -9820,7 +9938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>585</v>
       </c>
@@ -9834,7 +9952,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>587</v>
       </c>
@@ -9848,7 +9966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>588</v>
       </c>
@@ -9862,7 +9980,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>589</v>
       </c>
@@ -9876,7 +9994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>590</v>
       </c>
@@ -9890,7 +10008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>591</v>
       </c>
@@ -9904,7 +10022,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>592</v>
       </c>
@@ -9918,7 +10036,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>593</v>
       </c>
@@ -9932,7 +10050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>594</v>
       </c>
@@ -9946,7 +10064,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>595</v>
       </c>
@@ -9960,7 +10078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>596</v>
       </c>
@@ -9974,7 +10092,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>597</v>
       </c>
@@ -9988,7 +10106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>598</v>
       </c>
@@ -10002,7 +10120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>599</v>
       </c>
@@ -10016,7 +10134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>600</v>
       </c>
@@ -10030,7 +10148,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>602</v>
       </c>
@@ -10044,7 +10162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>603</v>
       </c>
@@ -10058,7 +10176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>604</v>
       </c>
@@ -10072,7 +10190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>605</v>
       </c>
@@ -10086,7 +10204,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>607</v>
       </c>
@@ -10100,7 +10218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>608</v>
       </c>
@@ -10114,7 +10232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>610</v>
       </c>
@@ -10128,7 +10246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>612</v>
       </c>
@@ -10142,7 +10260,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>613</v>
       </c>
@@ -10156,7 +10274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>615</v>
       </c>
@@ -10170,7 +10288,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>617</v>
       </c>
@@ -10184,7 +10302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>619</v>
       </c>
@@ -10198,7 +10316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>620</v>
       </c>
@@ -10212,7 +10330,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>622</v>
       </c>
@@ -10226,7 +10344,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>623</v>
       </c>
@@ -10240,7 +10358,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>624</v>
       </c>
@@ -10254,7 +10372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>625</v>
       </c>
@@ -10268,7 +10386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>627</v>
       </c>
@@ -10282,7 +10400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>629</v>
       </c>
@@ -10296,7 +10414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>630</v>
       </c>
@@ -10310,7 +10428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>631</v>
       </c>
@@ -10324,7 +10442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>632</v>
       </c>
@@ -10338,7 +10456,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>633</v>
       </c>
@@ -10352,7 +10470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>634</v>
       </c>
@@ -10366,7 +10484,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>635</v>
       </c>
@@ -10380,7 +10498,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>637</v>
       </c>
@@ -10394,7 +10512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>639</v>
       </c>
@@ -10408,7 +10526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>641</v>
       </c>
@@ -10422,7 +10540,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>642</v>
       </c>
@@ -10436,7 +10554,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>643</v>
       </c>
@@ -10450,7 +10568,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>644</v>
       </c>
@@ -10464,7 +10582,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>645</v>
       </c>
@@ -10478,7 +10596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>646</v>
       </c>
@@ -10492,7 +10610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>647</v>
       </c>
@@ -10506,7 +10624,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>648</v>
       </c>
@@ -10520,7 +10638,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>650</v>
       </c>
@@ -10534,7 +10652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>652</v>
       </c>
@@ -10548,7 +10666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>653</v>
       </c>
@@ -10562,7 +10680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>654</v>
       </c>
@@ -10576,7 +10694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>656</v>
       </c>
@@ -10590,7 +10708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>657</v>
       </c>
@@ -10604,7 +10722,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>659</v>
       </c>
@@ -10618,7 +10736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>661</v>
       </c>
@@ -10632,7 +10750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>663</v>
       </c>
@@ -10646,7 +10764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>664</v>
       </c>
@@ -10660,7 +10778,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>666</v>
       </c>
@@ -10674,7 +10792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>668</v>
       </c>
@@ -10688,7 +10806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>669</v>
       </c>
@@ -10702,7 +10820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>670</v>
       </c>
@@ -10716,7 +10834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>672</v>
       </c>
@@ -10730,7 +10848,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>673</v>
       </c>
@@ -10744,7 +10862,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>674</v>
       </c>
@@ -10758,7 +10876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>676</v>
       </c>
@@ -10772,7 +10890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>677</v>
       </c>
@@ -10786,7 +10904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>679</v>
       </c>
@@ -10800,7 +10918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>680</v>
       </c>
@@ -10814,7 +10932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>681</v>
       </c>
@@ -10828,7 +10946,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>682</v>
       </c>
@@ -10842,7 +10960,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>684</v>
       </c>
@@ -10856,7 +10974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>685</v>
       </c>
@@ -10870,7 +10988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>687</v>
       </c>
@@ -10884,7 +11002,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>689</v>
       </c>
@@ -10898,7 +11016,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>691</v>
       </c>
@@ -10912,7 +11030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>693</v>
       </c>
@@ -10926,7 +11044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>695</v>
       </c>
@@ -10940,7 +11058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>697</v>
       </c>
@@ -10954,7 +11072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>699</v>
       </c>
@@ -10968,7 +11086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>700</v>
       </c>
@@ -10982,7 +11100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>701</v>
       </c>
@@ -10996,7 +11114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>703</v>
       </c>
@@ -11010,7 +11128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>704</v>
       </c>
@@ -11024,7 +11142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>705</v>
       </c>
@@ -11038,7 +11156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>706</v>
       </c>
@@ -11052,7 +11170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>708</v>
       </c>
@@ -11066,7 +11184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>710</v>
       </c>
@@ -11080,7 +11198,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>712</v>
       </c>
@@ -11094,7 +11212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>713</v>
       </c>
@@ -11108,7 +11226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>715</v>
       </c>
@@ -11122,7 +11240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>716</v>
       </c>
@@ -11136,7 +11254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>717</v>
       </c>
@@ -11150,7 +11268,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>719</v>
       </c>
@@ -11164,7 +11282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>721</v>
       </c>
@@ -11178,7 +11296,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>722</v>
       </c>
@@ -11192,7 +11310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>724</v>
       </c>
@@ -11206,7 +11324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>726</v>
       </c>
@@ -11220,7 +11338,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>727</v>
       </c>
@@ -11234,7 +11352,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>729</v>
       </c>
@@ -11248,7 +11366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>730</v>
       </c>
@@ -11262,7 +11380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>731</v>
       </c>
@@ -11276,7 +11394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>733</v>
       </c>
@@ -11290,7 +11408,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>733</v>
       </c>
@@ -11304,7 +11422,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>734</v>
       </c>
@@ -11318,7 +11436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>736</v>
       </c>
@@ -11332,7 +11450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>737</v>
       </c>
@@ -11346,7 +11464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>738</v>
       </c>
@@ -11360,7 +11478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>740</v>
       </c>
@@ -11374,7 +11492,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>742</v>
       </c>
@@ -11388,7 +11506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>743</v>
       </c>
@@ -11402,7 +11520,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>744</v>
       </c>
@@ -11416,7 +11534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>745</v>
       </c>
@@ -11430,7 +11548,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>746</v>
       </c>
@@ -11444,7 +11562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>748</v>
       </c>
@@ -11458,7 +11576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>750</v>
       </c>
@@ -11472,7 +11590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>750</v>
       </c>
@@ -11486,7 +11604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>752</v>
       </c>
@@ -11500,7 +11618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>754</v>
       </c>
@@ -11514,7 +11632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>756</v>
       </c>
@@ -11528,7 +11646,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>757</v>
       </c>
@@ -11542,7 +11660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>758</v>
       </c>
@@ -11556,7 +11674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>759</v>
       </c>
@@ -11570,7 +11688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>761</v>
       </c>
@@ -11584,7 +11702,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>762</v>
       </c>
@@ -11598,7 +11716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>764</v>
       </c>
@@ -11612,7 +11730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>765</v>
       </c>
@@ -11626,7 +11744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>766</v>
       </c>
@@ -11640,7 +11758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>767</v>
       </c>
@@ -11654,7 +11772,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>768</v>
       </c>
@@ -11668,7 +11786,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>769</v>
       </c>
@@ -11682,7 +11800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>770</v>
       </c>
@@ -11696,7 +11814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>772</v>
       </c>
@@ -11710,7 +11828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>774</v>
       </c>
@@ -11724,7 +11842,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>775</v>
       </c>
@@ -11738,7 +11856,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>777</v>
       </c>
@@ -11752,7 +11870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>778</v>
       </c>
@@ -11766,7 +11884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>779</v>
       </c>
@@ -11780,7 +11898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>780</v>
       </c>
@@ -11794,7 +11912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>782</v>
       </c>
@@ -11808,7 +11926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>783</v>
       </c>
@@ -11822,7 +11940,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>784</v>
       </c>
@@ -11836,7 +11954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>785</v>
       </c>
@@ -11850,7 +11968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>786</v>
       </c>
@@ -11864,7 +11982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>788</v>
       </c>
@@ -11878,7 +11996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>790</v>
       </c>
@@ -11892,7 +12010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>792</v>
       </c>
@@ -11906,7 +12024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>793</v>
       </c>
@@ -11920,7 +12038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>794</v>
       </c>
@@ -11934,7 +12052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>795</v>
       </c>
@@ -11948,7 +12066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>797</v>
       </c>
@@ -11962,7 +12080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>798</v>
       </c>
@@ -11976,7 +12094,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>799</v>
       </c>
@@ -11990,7 +12108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>801</v>
       </c>
@@ -12004,7 +12122,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>803</v>
       </c>
@@ -12018,7 +12136,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>804</v>
       </c>
@@ -12032,7 +12150,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>805</v>
       </c>
@@ -12046,7 +12164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>806</v>
       </c>
@@ -12060,7 +12178,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>808</v>
       </c>
@@ -12074,7 +12192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>809</v>
       </c>
@@ -12088,7 +12206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>810</v>
       </c>
@@ -12102,7 +12220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>811</v>
       </c>
@@ -12116,7 +12234,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>813</v>
       </c>
@@ -12130,7 +12248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>815</v>
       </c>
@@ -12144,7 +12262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>816</v>
       </c>
@@ -12158,7 +12276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>817</v>
       </c>
@@ -12172,7 +12290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>819</v>
       </c>
@@ -12186,7 +12304,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>821</v>
       </c>
@@ -12200,7 +12318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>822</v>
       </c>
@@ -12214,7 +12332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>824</v>
       </c>
@@ -12228,7 +12346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>825</v>
       </c>
@@ -12242,7 +12360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>826</v>
       </c>
@@ -12256,7 +12374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>827</v>
       </c>
@@ -12270,7 +12388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>828</v>
       </c>
@@ -12284,7 +12402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>830</v>
       </c>
@@ -12298,7 +12416,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>831</v>
       </c>
@@ -12312,7 +12430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>832</v>
       </c>
@@ -12326,7 +12444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>834</v>
       </c>
@@ -12340,7 +12458,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>835</v>
       </c>
@@ -12354,7 +12472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>837</v>
       </c>
@@ -12368,7 +12486,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>838</v>
       </c>
@@ -12382,7 +12500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>839</v>
       </c>
@@ -12396,7 +12514,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>840</v>
       </c>
@@ -12410,7 +12528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>842</v>
       </c>
@@ -12424,7 +12542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>843</v>
       </c>
@@ -12438,7 +12556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>844</v>
       </c>
@@ -12452,7 +12570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>845</v>
       </c>
@@ -12466,7 +12584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>846</v>
       </c>
@@ -12480,7 +12598,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>847</v>
       </c>
@@ -12494,7 +12612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>848</v>
       </c>
@@ -12508,7 +12626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>850</v>
       </c>
@@ -12522,7 +12640,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>851</v>
       </c>
@@ -12536,7 +12654,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>852</v>
       </c>
@@ -12550,7 +12668,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>853</v>
       </c>
@@ -12564,7 +12682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>854</v>
       </c>
@@ -12578,7 +12696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>855</v>
       </c>
@@ -12592,7 +12710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>856</v>
       </c>
@@ -12606,7 +12724,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>857</v>
       </c>
@@ -12620,7 +12738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>858</v>
       </c>
@@ -12634,7 +12752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>859</v>
       </c>
@@ -12648,7 +12766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>860</v>
       </c>
@@ -12662,7 +12780,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>862</v>
       </c>
@@ -12676,7 +12794,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>863</v>
       </c>
@@ -12690,7 +12808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>864</v>
       </c>
@@ -12704,7 +12822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>865</v>
       </c>
@@ -12718,7 +12836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>866</v>
       </c>
@@ -12732,7 +12850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>867</v>
       </c>
@@ -12746,7 +12864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>868</v>
       </c>
@@ -12760,7 +12878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>869</v>
       </c>
@@ -12774,7 +12892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>870</v>
       </c>
@@ -12788,7 +12906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>871</v>
       </c>
@@ -12802,7 +12920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>872</v>
       </c>
@@ -12816,7 +12934,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>874</v>
       </c>
@@ -12830,7 +12948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>876</v>
       </c>
@@ -12844,7 +12962,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>878</v>
       </c>
@@ -12858,7 +12976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>879</v>
       </c>
@@ -12872,7 +12990,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>880</v>
       </c>
@@ -12886,7 +13004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>882</v>
       </c>
@@ -12900,7 +13018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>884</v>
       </c>
@@ -12914,7 +13032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>886</v>
       </c>
@@ -12928,7 +13046,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>887</v>
       </c>
@@ -12942,7 +13060,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>889</v>
       </c>
@@ -12956,7 +13074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>891</v>
       </c>
@@ -12970,7 +13088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>892</v>
       </c>
@@ -12984,7 +13102,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>894</v>
       </c>
@@ -12998,7 +13116,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>895</v>
       </c>
@@ -13012,7 +13130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>897</v>
       </c>
@@ -13026,7 +13144,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>899</v>
       </c>
@@ -13040,7 +13158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>900</v>
       </c>
@@ -13054,7 +13172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>901</v>
       </c>
@@ -13068,7 +13186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>903</v>
       </c>
@@ -13082,7 +13200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>904</v>
       </c>
@@ -13096,7 +13214,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>905</v>
       </c>
@@ -13110,7 +13228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>906</v>
       </c>
@@ -13124,7 +13242,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>908</v>
       </c>
@@ -13138,7 +13256,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>908</v>
       </c>
@@ -13152,7 +13270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>910</v>
       </c>
@@ -13166,7 +13284,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>912</v>
       </c>
@@ -13180,7 +13298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>913</v>
       </c>
@@ -13194,7 +13312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>915</v>
       </c>
@@ -13208,7 +13326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>917</v>
       </c>
@@ -13222,7 +13340,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>919</v>
       </c>
@@ -13236,7 +13354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>920</v>
       </c>
@@ -13250,7 +13368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>922</v>
       </c>
@@ -13264,7 +13382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>924</v>
       </c>
@@ -13278,7 +13396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>925</v>
       </c>
@@ -13292,7 +13410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>927</v>
       </c>
@@ -13306,7 +13424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>928</v>
       </c>
@@ -13320,7 +13438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>929</v>
       </c>
@@ -13334,7 +13452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>930</v>
       </c>
@@ -13348,7 +13466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>932</v>
       </c>
@@ -13362,7 +13480,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>933</v>
       </c>
@@ -13376,7 +13494,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>934</v>
       </c>
@@ -13390,7 +13508,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>935</v>
       </c>
@@ -13404,7 +13522,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>937</v>
       </c>
@@ -13418,7 +13536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>939</v>
       </c>
@@ -13432,7 +13550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>941</v>
       </c>
@@ -13446,7 +13564,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>942</v>
       </c>
@@ -13460,7 +13578,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>944</v>
       </c>
@@ -13474,7 +13592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>946</v>
       </c>
@@ -13488,7 +13606,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>947</v>
       </c>
@@ -13502,7 +13620,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>949</v>
       </c>
@@ -13516,7 +13634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>951</v>
       </c>
@@ -13530,7 +13648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>953</v>
       </c>
@@ -13544,7 +13662,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>955</v>
       </c>
@@ -13558,7 +13676,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>957</v>
       </c>
@@ -13572,7 +13690,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>958</v>
       </c>
@@ -13586,7 +13704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>959</v>
       </c>
@@ -13600,7 +13718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>961</v>
       </c>
@@ -13614,7 +13732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>963</v>
       </c>
@@ -13628,7 +13746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>964</v>
       </c>
@@ -13642,7 +13760,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>966</v>
       </c>
@@ -13656,7 +13774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>968</v>
       </c>
@@ -13670,7 +13788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>969</v>
       </c>
@@ -13684,7 +13802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>971</v>
       </c>
@@ -13698,7 +13816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>972</v>
       </c>
@@ -13712,7 +13830,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>973</v>
       </c>
@@ -13726,7 +13844,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>975</v>
       </c>
@@ -13740,7 +13858,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>977</v>
       </c>
@@ -13754,7 +13872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>979</v>
       </c>
@@ -13768,7 +13886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>981</v>
       </c>
@@ -13782,7 +13900,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>983</v>
       </c>
@@ -13796,7 +13914,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>984</v>
       </c>

--- a/src/test/cms_test_data_setup.xlsx
+++ b/src/test/cms_test_data_setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cms\cms-backend\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807EF187-5C8E-4FEC-8308-B38A93AF5534}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E0946D-9C38-4BCD-97B6-04E9EAA473FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="1048">
   <si>
     <t>college</t>
   </si>
@@ -3097,6 +3097,75 @@
   </si>
   <si>
     <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>transport_route</t>
+  </si>
+  <si>
+    <t>Madhpur</t>
+  </si>
+  <si>
+    <t>Punjagutta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jubliee hills</t>
+  </si>
+  <si>
+    <t>Balanagar</t>
+  </si>
+  <si>
+    <t>Amerpeet</t>
+  </si>
+  <si>
+    <t>Kompally</t>
+  </si>
+  <si>
+    <t>Secunderabad</t>
+  </si>
+  <si>
+    <t>Nampally</t>
+  </si>
+  <si>
+    <t>Balkampet</t>
+  </si>
+  <si>
+    <t>Srnagar</t>
+  </si>
+  <si>
+    <t>Sanathnagar</t>
+  </si>
+  <si>
+    <t>Mosapeet</t>
+  </si>
+  <si>
+    <t>Mothnigar</t>
+  </si>
+  <si>
+    <t>As Rao Nagar</t>
+  </si>
+  <si>
+    <t>Borabanda</t>
+  </si>
+  <si>
+    <t>Jntu</t>
+  </si>
+  <si>
+    <t>fee_details</t>
+  </si>
+  <si>
+    <t>Examfee</t>
+  </si>
+  <si>
+    <t>transportFee</t>
+  </si>
+  <si>
+    <t>TutionFee</t>
+  </si>
+  <si>
+    <t>GymFee</t>
+  </si>
+  <si>
+    <t>libraryFee</t>
   </si>
 </sst>
 </file>
@@ -3481,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="A1:S17"/>
+      <selection activeCell="U9" sqref="A1:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3504,7 +3573,7 @@
     <col min="18" max="18" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3562,8 +3631,14 @@
       <c r="S1" s="1" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -3621,8 +3696,14 @@
       <c r="S2" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -3680,8 +3761,14 @@
       <c r="S3" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -3739,8 +3826,14 @@
       <c r="S4" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -3798,8 +3891,14 @@
       <c r="S5" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3857,8 +3956,14 @@
       <c r="S6" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -3916,8 +4021,14 @@
       <c r="S7" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -3975,8 +4086,14 @@
       <c r="S8" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -4034,8 +4151,14 @@
       <c r="S9" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -4093,8 +4216,14 @@
       <c r="S10" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -4152,8 +4281,14 @@
       <c r="S11" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -4211,8 +4346,14 @@
       <c r="S12" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -4270,8 +4411,14 @@
       <c r="S13" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -4329,8 +4476,14 @@
       <c r="S14" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -4388,8 +4541,14 @@
       <c r="S15" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -4447,8 +4606,14 @@
       <c r="S16" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -4505,6 +4670,12 @@
       </c>
       <c r="S17" t="s">
         <v>1024</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/cms_test_data_setup.xlsx
+++ b/src/test/cms_test_data_setup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cms\cms-backend\src\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\cms-backend\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E0946D-9C38-4BCD-97B6-04E9EAA473FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767EEF37-80CD-47FD-ADA6-AAC9AD521751}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmstestdata" sheetId="1" r:id="rId1"/>
@@ -3550,30 +3550,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="A1:U17"/>
+      <selection activeCell="B17" sqref="A1:U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -4676,6 +4676,11 @@
       </c>
       <c r="U17" t="s">
         <v>1046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -4692,14 +4697,14 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4710,7 +4715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4732,7 +4737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4743,7 +4748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4754,7 +4759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4765,7 +4770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -4776,7 +4781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4787,7 +4792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -4798,7 +4803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4809,7 +4814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -4820,7 +4825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -4831,7 +4836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4842,7 +4847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -4853,7 +4858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -4864,7 +4869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -4875,7 +4880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -4886,7 +4891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -4897,7 +4902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -4908,7 +4913,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -4919,7 +4924,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -4930,7 +4935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -4941,7 +4946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -4952,7 +4957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -4963,7 +4968,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -4974,7 +4979,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -4985,7 +4990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -4996,7 +5001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -5007,7 +5012,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -5018,7 +5023,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -5029,7 +5034,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -5040,7 +5045,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -5051,7 +5056,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -5062,7 +5067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -5073,7 +5078,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -5084,7 +5089,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -5095,7 +5100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -5117,15 +5122,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>992</v>
       </c>
@@ -5139,7 +5144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -5153,7 +5158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -5167,7 +5172,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -5181,7 +5186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -5195,7 +5200,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -5209,7 +5214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5223,7 +5228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5237,7 +5242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -5251,7 +5256,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -5265,7 +5270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -5279,7 +5284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -5293,7 +5298,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -5307,7 +5312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -5321,7 +5326,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -5335,7 +5340,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -5349,7 +5354,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -5363,7 +5368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -5377,7 +5382,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -5391,7 +5396,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -5405,7 +5410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -5419,7 +5424,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -5433,7 +5438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -5447,7 +5452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -5461,7 +5466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -5489,7 +5494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -5503,7 +5508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -5517,7 +5522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -5531,7 +5536,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -5545,7 +5550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -5559,7 +5564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -5573,7 +5578,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -5587,7 +5592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -5601,7 +5606,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -5615,7 +5620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -5629,7 +5634,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -5643,7 +5648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -5657,7 +5662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -5671,7 +5676,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -5685,7 +5690,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -5699,7 +5704,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -5713,7 +5718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -5727,7 +5732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -5741,7 +5746,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>165</v>
       </c>
@@ -5755,7 +5760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>166</v>
       </c>
@@ -5769,7 +5774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -5783,7 +5788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>169</v>
       </c>
@@ -5797,7 +5802,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -5811,7 +5816,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -5825,7 +5830,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -5839,7 +5844,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -5853,7 +5858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -5867,7 +5872,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -5881,7 +5886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -5895,7 +5900,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -5909,7 +5914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>182</v>
       </c>
@@ -5923,7 +5928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>183</v>
       </c>
@@ -5937,7 +5942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>184</v>
       </c>
@@ -5951,7 +5956,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>185</v>
       </c>
@@ -5965,7 +5970,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -5979,7 +5984,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -5993,7 +5998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -6007,7 +6012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -6021,7 +6026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -6035,7 +6040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -6063,7 +6068,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -6077,7 +6082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>197</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -6105,7 +6110,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>199</v>
       </c>
@@ -6119,7 +6124,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -6133,7 +6138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>201</v>
       </c>
@@ -6147,7 +6152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -6161,7 +6166,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -6175,7 +6180,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>204</v>
       </c>
@@ -6189,7 +6194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -6203,7 +6208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -6217,7 +6222,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>208</v>
       </c>
@@ -6231,7 +6236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>209</v>
       </c>
@@ -6245,7 +6250,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -6259,7 +6264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>212</v>
       </c>
@@ -6273,7 +6278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -6287,7 +6292,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>215</v>
       </c>
@@ -6301,7 +6306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>216</v>
       </c>
@@ -6315,7 +6320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>216</v>
       </c>
@@ -6329,7 +6334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>217</v>
       </c>
@@ -6343,7 +6348,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>218</v>
       </c>
@@ -6357,7 +6362,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>219</v>
       </c>
@@ -6371,7 +6376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>219</v>
       </c>
@@ -6385,7 +6390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>220</v>
       </c>
@@ -6399,7 +6404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -6413,7 +6418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>222</v>
       </c>
@@ -6427,7 +6432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -6441,7 +6446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -6455,7 +6460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -6469,7 +6474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -6483,7 +6488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -6497,7 +6502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -6511,7 +6516,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -6525,7 +6530,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -6539,7 +6544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -6553,7 +6558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -6567,7 +6572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -6581,7 +6586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>237</v>
       </c>
@@ -6595,7 +6600,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>239</v>
       </c>
@@ -6609,7 +6614,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>241</v>
       </c>
@@ -6623,7 +6628,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>242</v>
       </c>
@@ -6637,7 +6642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>244</v>
       </c>
@@ -6651,7 +6656,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>246</v>
       </c>
@@ -6665,7 +6670,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -6679,7 +6684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>247</v>
       </c>
@@ -6693,7 +6698,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>248</v>
       </c>
@@ -6707,7 +6712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>249</v>
       </c>
@@ -6721,7 +6726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>250</v>
       </c>
@@ -6735,7 +6740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>251</v>
       </c>
@@ -6749,7 +6754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -6763,7 +6768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>254</v>
       </c>
@@ -6777,7 +6782,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>256</v>
       </c>
@@ -6791,7 +6796,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>258</v>
       </c>
@@ -6805,7 +6810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>259</v>
       </c>
@@ -6819,7 +6824,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -6833,7 +6838,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>261</v>
       </c>
@@ -6847,7 +6852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>262</v>
       </c>
@@ -6861,7 +6866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>263</v>
       </c>
@@ -6875,7 +6880,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>265</v>
       </c>
@@ -6889,7 +6894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>267</v>
       </c>
@@ -6903,7 +6908,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>269</v>
       </c>
@@ -6917,7 +6922,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>271</v>
       </c>
@@ -6931,7 +6936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>272</v>
       </c>
@@ -6945,7 +6950,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>46</v>
       </c>
@@ -6959,7 +6964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>273</v>
       </c>
@@ -6973,7 +6978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>275</v>
       </c>
@@ -6987,7 +6992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>277</v>
       </c>
@@ -7001,7 +7006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -7015,7 +7020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -7029,7 +7034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -7043,7 +7048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>283</v>
       </c>
@@ -7057,7 +7062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>284</v>
       </c>
@@ -7071,7 +7076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>285</v>
       </c>
@@ -7085,7 +7090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>287</v>
       </c>
@@ -7099,7 +7104,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>289</v>
       </c>
@@ -7113,7 +7118,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>290</v>
       </c>
@@ -7127,7 +7132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>291</v>
       </c>
@@ -7141,7 +7146,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>292</v>
       </c>
@@ -7155,7 +7160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>294</v>
       </c>
@@ -7169,7 +7174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>295</v>
       </c>
@@ -7183,7 +7188,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>296</v>
       </c>
@@ -7197,7 +7202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -7211,7 +7216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -7225,7 +7230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -7239,7 +7244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>301</v>
       </c>
@@ -7253,7 +7258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -7267,7 +7272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>303</v>
       </c>
@@ -7281,7 +7286,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>304</v>
       </c>
@@ -7295,7 +7300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>305</v>
       </c>
@@ -7309,7 +7314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>306</v>
       </c>
@@ -7323,7 +7328,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>307</v>
       </c>
@@ -7337,7 +7342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>309</v>
       </c>
@@ -7351,7 +7356,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>310</v>
       </c>
@@ -7365,7 +7370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>312</v>
       </c>
@@ -7379,7 +7384,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>313</v>
       </c>
@@ -7393,7 +7398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>314</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>315</v>
       </c>
@@ -7421,7 +7426,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>316</v>
       </c>
@@ -7435,7 +7440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>317</v>
       </c>
@@ -7449,7 +7454,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>318</v>
       </c>
@@ -7463,7 +7468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>320</v>
       </c>
@@ -7477,7 +7482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>321</v>
       </c>
@@ -7491,7 +7496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>323</v>
       </c>
@@ -7505,7 +7510,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>325</v>
       </c>
@@ -7519,7 +7524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>326</v>
       </c>
@@ -7533,7 +7538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>328</v>
       </c>
@@ -7547,7 +7552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>330</v>
       </c>
@@ -7561,7 +7566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>331</v>
       </c>
@@ -7575,7 +7580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>333</v>
       </c>
@@ -7589,7 +7594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>335</v>
       </c>
@@ -7603,7 +7608,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>336</v>
       </c>
@@ -7617,7 +7622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>338</v>
       </c>
@@ -7631,7 +7636,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>340</v>
       </c>
@@ -7645,7 +7650,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>342</v>
       </c>
@@ -7659,7 +7664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>344</v>
       </c>
@@ -7673,7 +7678,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>346</v>
       </c>
@@ -7687,7 +7692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>348</v>
       </c>
@@ -7701,7 +7706,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>350</v>
       </c>
@@ -7715,7 +7720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>351</v>
       </c>
@@ -7729,7 +7734,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>353</v>
       </c>
@@ -7743,7 +7748,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>354</v>
       </c>
@@ -7757,7 +7762,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>355</v>
       </c>
@@ -7771,7 +7776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>357</v>
       </c>
@@ -7785,7 +7790,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>358</v>
       </c>
@@ -7799,7 +7804,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>359</v>
       </c>
@@ -7813,7 +7818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>360</v>
       </c>
@@ -7827,7 +7832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>362</v>
       </c>
@@ -7841,7 +7846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>363</v>
       </c>
@@ -7855,7 +7860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>364</v>
       </c>
@@ -7869,7 +7874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>365</v>
       </c>
@@ -7883,7 +7888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>367</v>
       </c>
@@ -7897,7 +7902,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>368</v>
       </c>
@@ -7911,7 +7916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>370</v>
       </c>
@@ -7925,7 +7930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>371</v>
       </c>
@@ -7939,7 +7944,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>373</v>
       </c>
@@ -7953,7 +7958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>374</v>
       </c>
@@ -7967,7 +7972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>376</v>
       </c>
@@ -7981,7 +7986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>377</v>
       </c>
@@ -7995,7 +8000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>379</v>
       </c>
@@ -8009,7 +8014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>381</v>
       </c>
@@ -8023,7 +8028,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>382</v>
       </c>
@@ -8037,7 +8042,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>383</v>
       </c>
@@ -8051,7 +8056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>384</v>
       </c>
@@ -8065,7 +8070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>386</v>
       </c>
@@ -8079,7 +8084,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>387</v>
       </c>
@@ -8093,7 +8098,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>389</v>
       </c>
@@ -8107,7 +8112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>390</v>
       </c>
@@ -8121,7 +8126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>392</v>
       </c>
@@ -8135,7 +8140,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>393</v>
       </c>
@@ -8149,7 +8154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>394</v>
       </c>
@@ -8163,7 +8168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>396</v>
       </c>
@@ -8177,7 +8182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>398</v>
       </c>
@@ -8191,7 +8196,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>398</v>
       </c>
@@ -8205,7 +8210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>400</v>
       </c>
@@ -8219,7 +8224,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>401</v>
       </c>
@@ -8233,7 +8238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>402</v>
       </c>
@@ -8247,7 +8252,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>403</v>
       </c>
@@ -8261,7 +8266,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>404</v>
       </c>
@@ -8275,7 +8280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>406</v>
       </c>
@@ -8289,7 +8294,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -8303,7 +8308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -8317,7 +8322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -8331,7 +8336,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -8345,7 +8350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>415</v>
       </c>
@@ -8359,7 +8364,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>417</v>
       </c>
@@ -8373,7 +8378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>419</v>
       </c>
@@ -8387,7 +8392,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>420</v>
       </c>
@@ -8401,7 +8406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>421</v>
       </c>
@@ -8415,7 +8420,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>423</v>
       </c>
@@ -8429,7 +8434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>425</v>
       </c>
@@ -8443,7 +8448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>427</v>
       </c>
@@ -8457,7 +8462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>429</v>
       </c>
@@ -8471,7 +8476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>431</v>
       </c>
@@ -8485,7 +8490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>432</v>
       </c>
@@ -8499,7 +8504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>434</v>
       </c>
@@ -8513,7 +8518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>435</v>
       </c>
@@ -8527,7 +8532,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>436</v>
       </c>
@@ -8541,7 +8546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>437</v>
       </c>
@@ -8555,7 +8560,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>439</v>
       </c>
@@ -8569,7 +8574,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>441</v>
       </c>
@@ -8583,7 +8588,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>443</v>
       </c>
@@ -8597,7 +8602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>444</v>
       </c>
@@ -8611,7 +8616,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>445</v>
       </c>
@@ -8625,7 +8630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>447</v>
       </c>
@@ -8639,7 +8644,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>448</v>
       </c>
@@ -8653,7 +8658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>449</v>
       </c>
@@ -8667,7 +8672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>450</v>
       </c>
@@ -8681,7 +8686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>452</v>
       </c>
@@ -8695,7 +8700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>453</v>
       </c>
@@ -8709,7 +8714,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>455</v>
       </c>
@@ -8723,7 +8728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>456</v>
       </c>
@@ -8737,7 +8742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>458</v>
       </c>
@@ -8751,7 +8756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>459</v>
       </c>
@@ -8765,7 +8770,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>461</v>
       </c>
@@ -8779,7 +8784,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>462</v>
       </c>
@@ -8793,7 +8798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>463</v>
       </c>
@@ -8807,7 +8812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>465</v>
       </c>
@@ -8821,7 +8826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>467</v>
       </c>
@@ -8835,7 +8840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>469</v>
       </c>
@@ -8849,7 +8854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>470</v>
       </c>
@@ -8863,7 +8868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>471</v>
       </c>
@@ -8877,7 +8882,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>472</v>
       </c>
@@ -8891,7 +8896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>473</v>
       </c>
@@ -8905,7 +8910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>475</v>
       </c>
@@ -8919,7 +8924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>477</v>
       </c>
@@ -8933,7 +8938,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>478</v>
       </c>
@@ -8947,7 +8952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>480</v>
       </c>
@@ -8961,7 +8966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>481</v>
       </c>
@@ -8975,7 +8980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>483</v>
       </c>
@@ -8989,7 +8994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>485</v>
       </c>
@@ -9003,7 +9008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>486</v>
       </c>
@@ -9017,7 +9022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>488</v>
       </c>
@@ -9031,7 +9036,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>490</v>
       </c>
@@ -9045,7 +9050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>491</v>
       </c>
@@ -9059,7 +9064,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>492</v>
       </c>
@@ -9073,7 +9078,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>494</v>
       </c>
@@ -9087,7 +9092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>496</v>
       </c>
@@ -9101,7 +9106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>497</v>
       </c>
@@ -9115,7 +9120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>498</v>
       </c>
@@ -9129,7 +9134,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>499</v>
       </c>
@@ -9143,7 +9148,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>500</v>
       </c>
@@ -9157,7 +9162,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>501</v>
       </c>
@@ -9171,7 +9176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>502</v>
       </c>
@@ -9185,7 +9190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>503</v>
       </c>
@@ -9199,7 +9204,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>504</v>
       </c>
@@ -9213,7 +9218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>505</v>
       </c>
@@ -9227,7 +9232,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>506</v>
       </c>
@@ -9241,7 +9246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>508</v>
       </c>
@@ -9255,7 +9260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>509</v>
       </c>
@@ -9269,7 +9274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>510</v>
       </c>
@@ -9283,7 +9288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>511</v>
       </c>
@@ -9297,7 +9302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>512</v>
       </c>
@@ -9311,7 +9316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>513</v>
       </c>
@@ -9325,7 +9330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>515</v>
       </c>
@@ -9339,7 +9344,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>516</v>
       </c>
@@ -9353,7 +9358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>518</v>
       </c>
@@ -9367,7 +9372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>519</v>
       </c>
@@ -9381,7 +9386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>520</v>
       </c>
@@ -9395,7 +9400,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>521</v>
       </c>
@@ -9409,7 +9414,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>522</v>
       </c>
@@ -9423,7 +9428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>524</v>
       </c>
@@ -9437,7 +9442,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>525</v>
       </c>
@@ -9451,7 +9456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>526</v>
       </c>
@@ -9465,7 +9470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>527</v>
       </c>
@@ -9479,7 +9484,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>529</v>
       </c>
@@ -9493,7 +9498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>530</v>
       </c>
@@ -9507,7 +9512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>532</v>
       </c>
@@ -9521,7 +9526,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>533</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>534</v>
       </c>
@@ -9549,7 +9554,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>535</v>
       </c>
@@ -9563,7 +9568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>536</v>
       </c>
@@ -9577,7 +9582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>537</v>
       </c>
@@ -9591,7 +9596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>538</v>
       </c>
@@ -9605,7 +9610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>539</v>
       </c>
@@ -9619,7 +9624,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>540</v>
       </c>
@@ -9633,7 +9638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>541</v>
       </c>
@@ -9647,7 +9652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>542</v>
       </c>
@@ -9661,7 +9666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>543</v>
       </c>
@@ -9675,7 +9680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>544</v>
       </c>
@@ -9689,7 +9694,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>545</v>
       </c>
@@ -9703,7 +9708,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>547</v>
       </c>
@@ -9717,7 +9722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>548</v>
       </c>
@@ -9731,7 +9736,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>550</v>
       </c>
@@ -9745,7 +9750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>551</v>
       </c>
@@ -9759,7 +9764,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>552</v>
       </c>
@@ -9773,7 +9778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>553</v>
       </c>
@@ -9787,7 +9792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>554</v>
       </c>
@@ -9801,7 +9806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>555</v>
       </c>
@@ -9815,7 +9820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>556</v>
       </c>
@@ -9829,7 +9834,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>557</v>
       </c>
@@ -9843,7 +9848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>559</v>
       </c>
@@ -9857,7 +9862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>561</v>
       </c>
@@ -9871,7 +9876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>563</v>
       </c>
@@ -9885,7 +9890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>64</v>
       </c>
@@ -9899,7 +9904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>564</v>
       </c>
@@ -9913,7 +9918,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>565</v>
       </c>
@@ -9927,7 +9932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>566</v>
       </c>
@@ -9941,7 +9946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>567</v>
       </c>
@@ -9955,7 +9960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>568</v>
       </c>
@@ -9969,7 +9974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>570</v>
       </c>
@@ -9983,7 +9988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>572</v>
       </c>
@@ -9997,7 +10002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>574</v>
       </c>
@@ -10011,7 +10016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>575</v>
       </c>
@@ -10025,7 +10030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>576</v>
       </c>
@@ -10039,7 +10044,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>578</v>
       </c>
@@ -10053,7 +10058,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>579</v>
       </c>
@@ -10067,7 +10072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>580</v>
       </c>
@@ -10081,7 +10086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>581</v>
       </c>
@@ -10095,7 +10100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>583</v>
       </c>
@@ -10109,7 +10114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>585</v>
       </c>
@@ -10123,7 +10128,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>587</v>
       </c>
@@ -10137,7 +10142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>588</v>
       </c>
@@ -10151,7 +10156,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>589</v>
       </c>
@@ -10165,7 +10170,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>590</v>
       </c>
@@ -10179,7 +10184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>591</v>
       </c>
@@ -10193,7 +10198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>592</v>
       </c>
@@ -10207,7 +10212,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>593</v>
       </c>
@@ -10221,7 +10226,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>594</v>
       </c>
@@ -10235,7 +10240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>595</v>
       </c>
@@ -10249,7 +10254,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>596</v>
       </c>
@@ -10263,7 +10268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>597</v>
       </c>
@@ -10277,7 +10282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>598</v>
       </c>
@@ -10291,7 +10296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>599</v>
       </c>
@@ -10305,7 +10310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>600</v>
       </c>
@@ -10319,7 +10324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>602</v>
       </c>
@@ -10333,7 +10338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>603</v>
       </c>
@@ -10347,7 +10352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>604</v>
       </c>
@@ -10361,7 +10366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>605</v>
       </c>
@@ -10375,7 +10380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>607</v>
       </c>
@@ -10389,7 +10394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>608</v>
       </c>
@@ -10403,7 +10408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>610</v>
       </c>
@@ -10417,7 +10422,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>612</v>
       </c>
@@ -10431,7 +10436,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>613</v>
       </c>
@@ -10445,7 +10450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>615</v>
       </c>
@@ -10459,7 +10464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>617</v>
       </c>
@@ -10473,7 +10478,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>619</v>
       </c>
@@ -10487,7 +10492,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>620</v>
       </c>
@@ -10501,7 +10506,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>622</v>
       </c>
@@ -10515,7 +10520,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>623</v>
       </c>
@@ -10529,7 +10534,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>624</v>
       </c>
@@ -10543,7 +10548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>625</v>
       </c>
@@ -10557,7 +10562,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>627</v>
       </c>
@@ -10571,7 +10576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>629</v>
       </c>
@@ -10585,7 +10590,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>630</v>
       </c>
@@ -10599,7 +10604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>631</v>
       </c>
@@ -10613,7 +10618,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>632</v>
       </c>
@@ -10627,7 +10632,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>633</v>
       </c>
@@ -10641,7 +10646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>634</v>
       </c>
@@ -10655,7 +10660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>635</v>
       </c>
@@ -10669,7 +10674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>637</v>
       </c>
@@ -10683,7 +10688,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>639</v>
       </c>
@@ -10697,7 +10702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>641</v>
       </c>
@@ -10711,7 +10716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>642</v>
       </c>
@@ -10725,7 +10730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>643</v>
       </c>
@@ -10739,7 +10744,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>644</v>
       </c>
@@ -10753,7 +10758,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>645</v>
       </c>
@@ -10767,7 +10772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>646</v>
       </c>
@@ -10781,7 +10786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>647</v>
       </c>
@@ -10795,7 +10800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>648</v>
       </c>
@@ -10809,7 +10814,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>650</v>
       </c>
@@ -10823,7 +10828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>652</v>
       </c>
@@ -10837,7 +10842,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>653</v>
       </c>
@@ -10851,7 +10856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>654</v>
       </c>
@@ -10865,7 +10870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>656</v>
       </c>
@@ -10879,7 +10884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>657</v>
       </c>
@@ -10893,7 +10898,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>659</v>
       </c>
@@ -10907,7 +10912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>661</v>
       </c>
@@ -10921,7 +10926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>663</v>
       </c>
@@ -10935,7 +10940,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>664</v>
       </c>
@@ -10949,7 +10954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>666</v>
       </c>
@@ -10963,7 +10968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>668</v>
       </c>
@@ -10977,7 +10982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>669</v>
       </c>
@@ -10991,7 +10996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>670</v>
       </c>
@@ -11005,7 +11010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>672</v>
       </c>
@@ -11019,7 +11024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>673</v>
       </c>
@@ -11033,7 +11038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>674</v>
       </c>
@@ -11047,7 +11052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>676</v>
       </c>
@@ -11061,7 +11066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>677</v>
       </c>
@@ -11075,7 +11080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>679</v>
       </c>
@@ -11089,7 +11094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>680</v>
       </c>
@@ -11103,7 +11108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>681</v>
       </c>
@@ -11117,7 +11122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>682</v>
       </c>
@@ -11131,7 +11136,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>684</v>
       </c>
@@ -11145,7 +11150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>685</v>
       </c>
@@ -11159,7 +11164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>687</v>
       </c>
@@ -11173,7 +11178,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>689</v>
       </c>
@@ -11187,7 +11192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>691</v>
       </c>
@@ -11201,7 +11206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>693</v>
       </c>
@@ -11215,7 +11220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>695</v>
       </c>
@@ -11229,7 +11234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>697</v>
       </c>
@@ -11243,7 +11248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>699</v>
       </c>
@@ -11257,7 +11262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>700</v>
       </c>
@@ -11271,7 +11276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>701</v>
       </c>
@@ -11285,7 +11290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>703</v>
       </c>
@@ -11299,7 +11304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>704</v>
       </c>
@@ -11313,7 +11318,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>705</v>
       </c>
@@ -11327,7 +11332,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>706</v>
       </c>
@@ -11341,7 +11346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>708</v>
       </c>
@@ -11355,7 +11360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>710</v>
       </c>
@@ -11369,7 +11374,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>712</v>
       </c>
@@ -11383,7 +11388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>713</v>
       </c>
@@ -11397,7 +11402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>715</v>
       </c>
@@ -11411,7 +11416,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>716</v>
       </c>
@@ -11425,7 +11430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>717</v>
       </c>
@@ -11439,7 +11444,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>719</v>
       </c>
@@ -11453,7 +11458,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>721</v>
       </c>
@@ -11467,7 +11472,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>722</v>
       </c>
@@ -11481,7 +11486,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>724</v>
       </c>
@@ -11495,7 +11500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>726</v>
       </c>
@@ -11509,7 +11514,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>727</v>
       </c>
@@ -11523,7 +11528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>729</v>
       </c>
@@ -11537,7 +11542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>730</v>
       </c>
@@ -11551,7 +11556,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>731</v>
       </c>
@@ -11565,7 +11570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>733</v>
       </c>
@@ -11579,7 +11584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>733</v>
       </c>
@@ -11593,7 +11598,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>734</v>
       </c>
@@ -11607,7 +11612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>736</v>
       </c>
@@ -11621,7 +11626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>737</v>
       </c>
@@ -11635,7 +11640,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>738</v>
       </c>
@@ -11649,7 +11654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>740</v>
       </c>
@@ -11663,7 +11668,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>742</v>
       </c>
@@ -11677,7 +11682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>743</v>
       </c>
@@ -11691,7 +11696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>744</v>
       </c>
@@ -11705,7 +11710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>745</v>
       </c>
@@ -11719,7 +11724,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>746</v>
       </c>
@@ -11733,7 +11738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>748</v>
       </c>
@@ -11747,7 +11752,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>750</v>
       </c>
@@ -11761,7 +11766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>750</v>
       </c>
@@ -11775,7 +11780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>752</v>
       </c>
@@ -11789,7 +11794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>754</v>
       </c>
@@ -11803,7 +11808,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>756</v>
       </c>
@@ -11817,7 +11822,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>757</v>
       </c>
@@ -11831,7 +11836,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>758</v>
       </c>
@@ -11845,7 +11850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>759</v>
       </c>
@@ -11859,7 +11864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>761</v>
       </c>
@@ -11873,7 +11878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>762</v>
       </c>
@@ -11887,7 +11892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>764</v>
       </c>
@@ -11901,7 +11906,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>765</v>
       </c>
@@ -11915,7 +11920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>766</v>
       </c>
@@ -11929,7 +11934,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>767</v>
       </c>
@@ -11943,7 +11948,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>768</v>
       </c>
@@ -11957,7 +11962,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>769</v>
       </c>
@@ -11971,7 +11976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>770</v>
       </c>
@@ -11985,7 +11990,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>772</v>
       </c>
@@ -11999,7 +12004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>774</v>
       </c>
@@ -12013,7 +12018,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>775</v>
       </c>
@@ -12027,7 +12032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>777</v>
       </c>
@@ -12041,7 +12046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>778</v>
       </c>
@@ -12055,7 +12060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>779</v>
       </c>
@@ -12069,7 +12074,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>780</v>
       </c>
@@ -12083,7 +12088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>782</v>
       </c>
@@ -12097,7 +12102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>783</v>
       </c>
@@ -12111,7 +12116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>784</v>
       </c>
@@ -12125,7 +12130,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>785</v>
       </c>
@@ -12139,7 +12144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>786</v>
       </c>
@@ -12153,7 +12158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>788</v>
       </c>
@@ -12167,7 +12172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>790</v>
       </c>
@@ -12181,7 +12186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>792</v>
       </c>
@@ -12195,7 +12200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>793</v>
       </c>
@@ -12209,7 +12214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>794</v>
       </c>
@@ -12223,7 +12228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>795</v>
       </c>
@@ -12237,7 +12242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>797</v>
       </c>
@@ -12251,7 +12256,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>798</v>
       </c>
@@ -12265,7 +12270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>799</v>
       </c>
@@ -12279,7 +12284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>801</v>
       </c>
@@ -12293,7 +12298,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>803</v>
       </c>
@@ -12307,7 +12312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>804</v>
       </c>
@@ -12321,7 +12326,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>805</v>
       </c>
@@ -12335,7 +12340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>806</v>
       </c>
@@ -12349,7 +12354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>808</v>
       </c>
@@ -12363,7 +12368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>809</v>
       </c>
@@ -12377,7 +12382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>810</v>
       </c>
@@ -12391,7 +12396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>811</v>
       </c>
@@ -12405,7 +12410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>813</v>
       </c>
@@ -12419,7 +12424,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>815</v>
       </c>
@@ -12433,7 +12438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>816</v>
       </c>
@@ -12447,7 +12452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>817</v>
       </c>
@@ -12461,7 +12466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>819</v>
       </c>
@@ -12475,7 +12480,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>821</v>
       </c>
@@ -12489,7 +12494,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>822</v>
       </c>
@@ -12503,7 +12508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>824</v>
       </c>
@@ -12517,7 +12522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>825</v>
       </c>
@@ -12531,7 +12536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>826</v>
       </c>
@@ -12545,7 +12550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>827</v>
       </c>
@@ -12559,7 +12564,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>828</v>
       </c>
@@ -12573,7 +12578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>830</v>
       </c>
@@ -12587,7 +12592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>831</v>
       </c>
@@ -12601,7 +12606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>832</v>
       </c>
@@ -12615,7 +12620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>834</v>
       </c>
@@ -12629,7 +12634,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>835</v>
       </c>
@@ -12643,7 +12648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>837</v>
       </c>
@@ -12657,7 +12662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>838</v>
       </c>
@@ -12671,7 +12676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>839</v>
       </c>
@@ -12685,7 +12690,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>840</v>
       </c>
@@ -12699,7 +12704,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>842</v>
       </c>
@@ -12713,7 +12718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>843</v>
       </c>
@@ -12727,7 +12732,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>844</v>
       </c>
@@ -12741,7 +12746,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>845</v>
       </c>
@@ -12755,7 +12760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>846</v>
       </c>
@@ -12769,7 +12774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>847</v>
       </c>
@@ -12783,7 +12788,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>848</v>
       </c>
@@ -12797,7 +12802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>850</v>
       </c>
@@ -12811,7 +12816,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>851</v>
       </c>
@@ -12825,7 +12830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>852</v>
       </c>
@@ -12839,7 +12844,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>853</v>
       </c>
@@ -12853,7 +12858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>854</v>
       </c>
@@ -12867,7 +12872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>855</v>
       </c>
@@ -12881,7 +12886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>856</v>
       </c>
@@ -12895,7 +12900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>857</v>
       </c>
@@ -12909,7 +12914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>858</v>
       </c>
@@ -12923,7 +12928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>859</v>
       </c>
@@ -12937,7 +12942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>860</v>
       </c>
@@ -12951,7 +12956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>862</v>
       </c>
@@ -12965,7 +12970,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>863</v>
       </c>
@@ -12979,7 +12984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>864</v>
       </c>
@@ -12993,7 +12998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>865</v>
       </c>
@@ -13007,7 +13012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>866</v>
       </c>
@@ -13021,7 +13026,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>867</v>
       </c>
@@ -13035,7 +13040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>868</v>
       </c>
@@ -13049,7 +13054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>869</v>
       </c>
@@ -13063,7 +13068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>870</v>
       </c>
@@ -13077,7 +13082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>871</v>
       </c>
@@ -13091,7 +13096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>872</v>
       </c>
@@ -13105,7 +13110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>874</v>
       </c>
@@ -13119,7 +13124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>876</v>
       </c>
@@ -13133,7 +13138,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>878</v>
       </c>
@@ -13147,7 +13152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>879</v>
       </c>
@@ -13161,7 +13166,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>880</v>
       </c>
@@ -13175,7 +13180,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>882</v>
       </c>
@@ -13189,7 +13194,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>884</v>
       </c>
@@ -13203,7 +13208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>886</v>
       </c>
@@ -13217,7 +13222,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>887</v>
       </c>
@@ -13231,7 +13236,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>889</v>
       </c>
@@ -13245,7 +13250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>891</v>
       </c>
@@ -13259,7 +13264,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>892</v>
       </c>
@@ -13273,7 +13278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>894</v>
       </c>
@@ -13287,7 +13292,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>895</v>
       </c>
@@ -13301,7 +13306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>897</v>
       </c>
@@ -13315,7 +13320,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>899</v>
       </c>
@@ -13329,7 +13334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>900</v>
       </c>
@@ -13343,7 +13348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>901</v>
       </c>
@@ -13357,7 +13362,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>903</v>
       </c>
@@ -13371,7 +13376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>904</v>
       </c>
@@ -13385,7 +13390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>905</v>
       </c>
@@ -13399,7 +13404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>906</v>
       </c>
@@ -13413,7 +13418,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>908</v>
       </c>
@@ -13427,7 +13432,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>908</v>
       </c>
@@ -13441,7 +13446,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>910</v>
       </c>
@@ -13455,7 +13460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>912</v>
       </c>
@@ -13469,7 +13474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>913</v>
       </c>
@@ -13483,7 +13488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>915</v>
       </c>
@@ -13497,7 +13502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>917</v>
       </c>
@@ -13511,7 +13516,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>919</v>
       </c>
@@ -13525,7 +13530,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>920</v>
       </c>
@@ -13539,7 +13544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>922</v>
       </c>
@@ -13553,7 +13558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>924</v>
       </c>
@@ -13567,7 +13572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>925</v>
       </c>
@@ -13581,7 +13586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>927</v>
       </c>
@@ -13595,7 +13600,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>928</v>
       </c>
@@ -13609,7 +13614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>929</v>
       </c>
@@ -13623,7 +13628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>930</v>
       </c>
@@ -13637,7 +13642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>932</v>
       </c>
@@ -13651,7 +13656,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>933</v>
       </c>
@@ -13665,7 +13670,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>934</v>
       </c>
@@ -13679,7 +13684,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>935</v>
       </c>
@@ -13693,7 +13698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>937</v>
       </c>
@@ -13707,7 +13712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>939</v>
       </c>
@@ -13721,7 +13726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>941</v>
       </c>
@@ -13735,7 +13740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>942</v>
       </c>
@@ -13749,7 +13754,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>944</v>
       </c>
@@ -13763,7 +13768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>946</v>
       </c>
@@ -13777,7 +13782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>947</v>
       </c>
@@ -13791,7 +13796,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>949</v>
       </c>
@@ -13805,7 +13810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>951</v>
       </c>
@@ -13819,7 +13824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>953</v>
       </c>
@@ -13833,7 +13838,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>955</v>
       </c>
@@ -13847,7 +13852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>957</v>
       </c>
@@ -13861,7 +13866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>958</v>
       </c>
@@ -13875,7 +13880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>959</v>
       </c>
@@ -13889,7 +13894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>961</v>
       </c>
@@ -13903,7 +13908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>963</v>
       </c>
@@ -13917,7 +13922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>964</v>
       </c>
@@ -13931,7 +13936,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>966</v>
       </c>
@@ -13945,7 +13950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>968</v>
       </c>
@@ -13959,7 +13964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>969</v>
       </c>
@@ -13973,7 +13978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>971</v>
       </c>
@@ -13987,7 +13992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>972</v>
       </c>
@@ -14001,7 +14006,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>973</v>
       </c>
@@ -14015,7 +14020,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>975</v>
       </c>
@@ -14029,7 +14034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>977</v>
       </c>
@@ -14043,7 +14048,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>979</v>
       </c>
@@ -14057,7 +14062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>981</v>
       </c>
@@ -14071,7 +14076,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>983</v>
       </c>
@@ -14085,7 +14090,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>984</v>
       </c>
